--- a/Sorting_TestScript.xlsx
+++ b/Sorting_TestScript.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usser\Documents\NetBeansProjects\VirusApplicatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\NetBeansProjects\Eindopdracht-Bi6a-Feenstra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7368"/>
   </bookViews>
   <sheets>
     <sheet name="script" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Step</t>
   </si>
@@ -111,9 +111,6 @@
     <t>The sorting radiobutton "Id" is selected.</t>
   </si>
   <si>
-    <t>The  virus ID's are sorted from low to high numbers.</t>
-  </si>
-  <si>
     <t>The sorting radiobutton "Classificatie" is selected.</t>
   </si>
   <si>
@@ -123,16 +120,25 @@
     <t>The sorting radiobutton "Aantal hosts" is selected.</t>
   </si>
   <si>
-    <t>The virusses are sorted on hostcount from low to high.</t>
-  </si>
-  <si>
     <t>A sorting radiobutton is selected after a file is opened.</t>
+  </si>
+  <si>
+    <t>The  virus ID's are sorted on number.</t>
+  </si>
+  <si>
+    <t>The virusses are sorted on hostcount.</t>
+  </si>
+  <si>
+    <t>The sortorder in the combobox is changed.</t>
+  </si>
+  <si>
+    <t>The virusses are sorted in the correct order.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
@@ -732,26 +738,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,8 +786,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,37 +1138,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="38" style="7" customWidth="1"/>
-    <col min="4" max="6" width="2.7109375" style="14" customWidth="1"/>
+    <col min="4" max="6" width="2.6640625" style="14" customWidth="1"/>
     <col min="7" max="7" width="16" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29.7109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="8" max="8" width="29.6640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -1170,71 +1176,71 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
         <v>4</v>
@@ -1252,7 +1258,7 @@
       </c>
       <c r="H7" s="21"/>
     </row>
-    <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -1265,12 +1271,12 @@
       <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="39">
         <v>0.83333333333333337</v>
       </c>
       <c r="H8" s="27"/>
     </row>
-    <row r="9" spans="1:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1295,12 @@
       <c r="F9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="57"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
         <v>1</v>
       </c>
@@ -1302,53 +1308,53 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="32">
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>4</v>
       </c>
@@ -1363,15 +1369,15 @@
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>25</v>
@@ -1381,22 +1387,28 @@
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>6</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>7</v>
       </c>
@@ -1405,10 +1417,10 @@
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>8</v>
       </c>
@@ -1417,10 +1429,10 @@
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>9</v>
       </c>
@@ -1429,10 +1441,10 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>10</v>
       </c>
@@ -1441,10 +1453,10 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>11</v>
       </c>
@@ -1453,10 +1465,10 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="32">
         <v>12</v>
       </c>
@@ -1465,10 +1477,10 @@
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
         <v>13</v>
       </c>
@@ -1477,10 +1489,10 @@
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="32">
         <v>14</v>
       </c>
@@ -1489,10 +1501,10 @@
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
         <v>15</v>
       </c>
@@ -1501,10 +1513,10 @@
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="40"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
         <v>16</v>
       </c>
@@ -1513,10 +1525,10 @@
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
         <v>17</v>
       </c>
@@ -1525,10 +1537,10 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
         <v>18</v>
       </c>
@@ -1537,10 +1549,10 @@
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
         <v>19</v>
       </c>
@@ -1549,10 +1561,10 @@
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
         <v>20</v>
       </c>
@@ -1561,10 +1573,10 @@
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="36" t="s">
         <v>7</v>
@@ -1573,24 +1585,11 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="G30:H30"/>
@@ -1607,6 +1606,19 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
